--- a/Notebooks/Table results of classifier.xlsx
+++ b/Notebooks/Table results of classifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b64e976bd57ea41/Documents/HIA 303 Health Data Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{3F12D85E-2CE7-4F1D-AE27-409501DD2B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16F6FBA5-C45A-474B-AB76-CF6C533BE827}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="8_{3F12D85E-2CE7-4F1D-AE27-409501DD2B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18137BA1-BCB3-42C1-93E5-A9432F8606D2}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="0" windowWidth="14040" windowHeight="11385" xr2:uid="{7B717259-BD28-45D3-86C7-FEA3DBEB2418}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B717259-BD28-45D3-86C7-FEA3DBEB2418}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Classifier</t>
-  </si>
-  <si>
-    <t>TP Rate</t>
-  </si>
-  <si>
-    <t>FP Rate</t>
   </si>
   <si>
     <t>Precision</t>
@@ -126,6 +120,60 @@
         <family val="1"/>
       </rPr>
       <t>Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Result of Classifiers for Malignant Tumour</t>
+    </r>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Result of Classifiers for Benign Tumour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Table 2</t>
     </r>
     <r>
       <rPr>
@@ -212,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -220,6 +268,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,450 +585,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F950A42-E35D-4DC2-958F-DEB910C502BE}">
-  <dimension ref="D1:M21"/>
+  <dimension ref="C1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" ht="15.75">
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="3:12" ht="15.75">
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="4:13">
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="D4" s="2">
+        <v>445</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>234</v>
+      </c>
+      <c r="G4" s="2">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="4:13">
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>445</v>
-      </c>
-      <c r="F4" s="2">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2">
-        <v>234</v>
-      </c>
       <c r="H4" s="2">
-        <v>13</v>
+        <v>0.95</v>
       </c>
       <c r="I4" s="2">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J4" s="2">
         <v>0.96</v>
       </c>
       <c r="K4" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>436</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>234</v>
+      </c>
+      <c r="G5" s="2">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.96</v>
       </c>
-      <c r="L4" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L5" s="2">
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="4:13">
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>436</v>
-      </c>
-      <c r="F5" s="2">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2">
-        <v>234</v>
-      </c>
-      <c r="H5" s="2">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="J5" s="2">
+    <row r="6" spans="3:12">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>441</v>
+      </c>
+      <c r="E6" s="2">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2">
+        <v>220</v>
+      </c>
+      <c r="G6" s="2">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.95</v>
       </c>
-      <c r="K5" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="I6" s="2">
         <v>0.96</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="6" spans="4:13">
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
-        <v>441</v>
-      </c>
-      <c r="F6" s="2">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2">
-        <v>220</v>
-      </c>
-      <c r="H6" s="2">
-        <v>17</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.95</v>
       </c>
       <c r="J6" s="2">
         <v>0.96</v>
       </c>
       <c r="K6" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>447</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>227</v>
+      </c>
+      <c r="G7" s="2">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="K7" s="2">
         <v>0.96</v>
       </c>
-      <c r="L6" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13">
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>447</v>
-      </c>
-      <c r="F7" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>227</v>
-      </c>
-      <c r="H7" s="2">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>445</v>
+      </c>
+      <c r="E8" s="2">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2">
+        <v>229</v>
+      </c>
+      <c r="G8" s="2">
+        <v>13</v>
+      </c>
+      <c r="H8" s="2">
         <v>0.97</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13">
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>445</v>
-      </c>
-      <c r="F8" s="2">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2">
-        <v>229</v>
-      </c>
-      <c r="H8" s="2">
-        <v>13</v>
       </c>
       <c r="I8" s="2">
         <v>0.97</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>0.97</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>431</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>238</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="J9" s="2">
         <v>0.97</v>
       </c>
-      <c r="L8" s="2">
+      <c r="K9" s="2">
         <v>0.96</v>
       </c>
-      <c r="M8" s="2">
+      <c r="L9" s="2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="9" spans="4:13">
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2">
-        <v>431</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>238</v>
-      </c>
-      <c r="H9" s="2">
-        <v>27</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="10" spans="4:13">
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" spans="3:12">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>0.97</v>
+      </c>
       <c r="L10" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="M10" s="2">
         <v>0.99</v>
       </c>
     </row>
-    <row r="12" spans="4:13" ht="15.75">
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
+    <row r="12" spans="3:12" ht="15.75">
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="14" spans="4:13">
+    <row r="14" spans="3:12">
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="D15" s="2">
+        <v>445</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7</v>
+      </c>
+      <c r="F15" s="2">
+        <v>234</v>
+      </c>
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="D16" s="2">
+        <v>436</v>
+      </c>
+      <c r="E16" s="2">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>234</v>
+      </c>
+      <c r="G16" s="2">
+        <v>22</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>441</v>
+      </c>
+      <c r="E17" s="2">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2">
+        <v>220</v>
+      </c>
+      <c r="G17" s="2">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>447</v>
+      </c>
+      <c r="E18" s="2">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2">
+        <v>227</v>
+      </c>
+      <c r="G18" s="2">
+        <v>11</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <v>445</v>
+      </c>
+      <c r="E19" s="2">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>229</v>
+      </c>
+      <c r="G19" s="2">
         <v>13</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13">
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="2">
-        <v>445</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7</v>
-      </c>
-      <c r="G15" s="2">
-        <v>234</v>
-      </c>
-      <c r="H15" s="2">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H19" s="2">
         <v>0.95</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="16" spans="4:13">
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2">
-        <v>436</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7</v>
-      </c>
-      <c r="G16" s="2">
-        <v>234</v>
-      </c>
-      <c r="H16" s="2">
-        <v>22</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13">
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2">
-        <v>441</v>
-      </c>
-      <c r="F17" s="2">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2">
-        <v>220</v>
-      </c>
-      <c r="H17" s="2">
-        <v>17</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.91</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13">
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2">
-        <v>447</v>
-      </c>
-      <c r="F18" s="2">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2">
-        <v>227</v>
-      </c>
-      <c r="H18" s="2">
-        <v>11</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13">
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2">
-        <v>445</v>
-      </c>
-      <c r="F19" s="2">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2">
-        <v>229</v>
-      </c>
-      <c r="H19" s="2">
-        <v>13</v>
       </c>
       <c r="I19" s="2">
         <v>0.95</v>
@@ -986,63 +1043,278 @@
         <v>0.95</v>
       </c>
       <c r="K19" s="2">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L19" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>431</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>238</v>
+      </c>
+      <c r="G20" s="2">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="K20" s="2">
         <v>0.96</v>
       </c>
-      <c r="M19" s="2">
+      <c r="L20" s="2">
         <v>0.98</v>
       </c>
     </row>
-    <row r="20" spans="4:13">
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2">
-        <v>431</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>238</v>
-      </c>
-      <c r="H20" s="2">
-        <v>27</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.96</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13">
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="21" spans="3:12">
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>0.97</v>
+      </c>
       <c r="L21" s="2">
-        <v>0.97</v>
-      </c>
-      <c r="M21" s="2">
         <v>0.99</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="3:12" ht="15.75">
+      <c r="C23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.95850000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.9456</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.96419999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.96419999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.95709999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="15.75">
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.97140000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.95850000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.9456</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.96419999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.96419999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.95709999999999995</v>
       </c>
     </row>
   </sheetData>
